--- a/base.xlsx
+++ b/base.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,28 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L 001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/base.xlsx
+++ b/base.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,50 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L 001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caperucita Roja</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/base.xlsx
+++ b/base.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,22 +446,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>L 001</t>
+          <t>L0012</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fjdf</t>
+          <t>dfj</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C0001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>romance</t>
         </is>
       </c>
     </row>
